--- a/data/content.xlsx
+++ b/data/content.xlsx
@@ -5,16 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\Javascript\Website\Quan\Client\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\Javascript\Website\Quan\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EDA587C-2EF9-426D-BE6E-305DCC2C4557}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6B869BA-2BAE-4A6E-AA77-D1F623739043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="540" yWindow="1152" windowWidth="11508" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="288" yWindow="1932" windowWidth="11508" windowHeight="8964" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Header" sheetId="1" r:id="rId1"/>
-    <sheet name="Common" sheetId="2" r:id="rId2"/>
+    <sheet name="Common" sheetId="2" r:id="rId1"/>
+    <sheet name="Header" sheetId="1" r:id="rId2"/>
+    <sheet name="Contact" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="43">
   <si>
     <t>::ID::</t>
   </si>
@@ -67,9 +68,6 @@
     <t>About Us</t>
   </si>
   <si>
-    <t>Contact Us</t>
-  </si>
-  <si>
     <t>Tiếng Anh</t>
   </si>
   <si>
@@ -92,19 +90,99 @@
   </si>
   <si>
     <t>Our Services</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Contact</t>
+  </si>
+  <si>
+    <t>Contact Me</t>
+  </si>
+  <si>
+    <t>Liên hệ</t>
+  </si>
+  <si>
+    <t>FullName</t>
+  </si>
+  <si>
+    <t>Message</t>
+  </si>
+  <si>
+    <t>CustomerEmail</t>
+  </si>
+  <si>
+    <t>Full Name</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Điện thoại</t>
+  </si>
+  <si>
+    <t>Instagram</t>
+  </si>
+  <si>
+    <t>Facebook</t>
+  </si>
+  <si>
+    <t>Facebook_Name</t>
+  </si>
+  <si>
+    <t>Email_Name</t>
+  </si>
+  <si>
+    <t>itsbewle@gmail.com</t>
+  </si>
+  <si>
+    <t>Junn.quan_</t>
+  </si>
+  <si>
+    <t>Instagram_Name</t>
+  </si>
+  <si>
+    <t>Phone_Name</t>
+  </si>
+  <si>
+    <t>https://bom.so/hl1W6O</t>
+  </si>
+  <si>
+    <t>Họ và tên</t>
+  </si>
+  <si>
+    <t>Message…</t>
+  </si>
+  <si>
+    <t>Lời nhắn…</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF050505"/>
+      <name val="Segoe UI Historic"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -124,13 +202,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -408,11 +490,48 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B720B81D-BD44-4249-8A27-5D7594AB3E59}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -446,13 +565,13 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
         <v>18</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>19</v>
-      </c>
-      <c r="C3" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -463,7 +582,7 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -485,15 +604,15 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -501,10 +620,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
         <v>16</v>
-      </c>
-      <c r="B8" t="s">
-        <v>17</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
@@ -515,15 +634,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B720B81D-BD44-4249-8A27-5D7594AB3E59}">
-  <dimension ref="A1:C2"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC9CE1EA-53C2-42D5-924E-619964027763}">
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.44140625" customWidth="1"/>
+    <col min="2" max="2" width="27.21875" customWidth="1"/>
+    <col min="3" max="3" width="35.109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -538,16 +662,143 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4">
+        <v>582956685</v>
+      </c>
+      <c r="C4">
+        <v>582956685</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B9" r:id="rId1" xr:uid="{5CA2A78F-843D-4D42-B984-81DAC4354C92}"/>
+    <hyperlink ref="C9" r:id="rId2" xr:uid="{0DF767F2-F57F-484D-AEB5-9265B1809900}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/data/content.xlsx
+++ b/data/content.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\Javascript\Website\Quan\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6B869BA-2BAE-4A6E-AA77-D1F623739043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C62469B-E003-48C6-9FA4-64726B16E2C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="288" yWindow="1932" windowWidth="11508" windowHeight="8964" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5400" yWindow="744" windowWidth="11508" windowHeight="8964" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Common" sheetId="2" r:id="rId1"/>
     <sheet name="Header" sheetId="1" r:id="rId2"/>
     <sheet name="Contact" sheetId="3" r:id="rId3"/>
+    <sheet name="Error" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="51">
   <si>
     <t>::ID::</t>
   </si>
@@ -156,6 +157,30 @@
   </si>
   <si>
     <t>Lời nhắn…</t>
+  </si>
+  <si>
+    <t>Send</t>
+  </si>
+  <si>
+    <t>Gửi</t>
+  </si>
+  <si>
+    <t>ErrorName</t>
+  </si>
+  <si>
+    <t>ErrorEmail</t>
+  </si>
+  <si>
+    <t>Vui lòng nhập đúng định dạng Email</t>
+  </si>
+  <si>
+    <t>Vui lòng nhập đúng định dạng tên</t>
+  </si>
+  <si>
+    <t>Please specify a valid name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please specify a valid email </t>
   </si>
 </sst>
 </file>
@@ -636,10 +661,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC9CE1EA-53C2-42D5-924E-619964027763}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -793,6 +818,17 @@
         <v>41</v>
       </c>
     </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B9" r:id="rId1" xr:uid="{5CA2A78F-843D-4D42-B984-81DAC4354C92}"/>
@@ -801,4 +837,57 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24A21D09-C8AD-49FA-BFCC-831539803B14}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
+    <col min="2" max="2" width="34.88671875" customWidth="1"/>
+    <col min="3" max="3" width="49.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/content.xlsx
+++ b/data/content.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\Javascript\Website\Quan\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C62469B-E003-48C6-9FA4-64726B16E2C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6B1F250-3571-4566-B3F5-669A403910A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5400" yWindow="744" windowWidth="11508" windowHeight="8964" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5400" yWindow="744" windowWidth="11508" windowHeight="8964" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Common" sheetId="2" r:id="rId1"/>
     <sheet name="Header" sheetId="1" r:id="rId2"/>
     <sheet name="Contact" sheetId="3" r:id="rId3"/>
     <sheet name="Error" sheetId="4" r:id="rId4"/>
+    <sheet name="Home" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="54">
   <si>
     <t>::ID::</t>
   </si>
@@ -181,6 +182,15 @@
   </si>
   <si>
     <t xml:space="preserve">Please specify a valid email </t>
+  </si>
+  <si>
+    <t>View</t>
+  </si>
+  <si>
+    <t>Demo</t>
+  </si>
+  <si>
+    <t>View Demo</t>
   </si>
 </sst>
 </file>
@@ -843,8 +853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24A21D09-C8AD-49FA-BFCC-831539803B14}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -890,4 +900,41 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94536F79-3594-448C-9849-47C7D0C31D15}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>